--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Virat Kohli</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2857</t>
+          <t>2857</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2860</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2865</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2871</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2873</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3016</t>
+          <t>3016</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +921,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>28/09/2009</t>
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3028</t>
+          <t>3028</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3031</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3040</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3046</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3062</t>
+          <t>3062</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3063</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1216,7 +1280,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>27/12/2009</t>
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3066</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3073</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3091</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1576,7 +1639,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>24/02/2010</t>
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3092</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3116</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1844,7 +1906,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2010,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3132</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3130</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3163</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3171</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3204</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2364,7 +2426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2416,7 +2478,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2468,7 +2530,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2520,7 +2582,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3212</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2572,7 +2634,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3214</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2624,7 +2686,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3215</t>
+          <t>3215</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2676,7 +2738,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3217</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2728,7 +2790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3219</t>
+          <t>3219</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3222</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3245</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2936,7 +2998,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2988,7 +3050,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3259</t>
+          <t>3259</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3040,7 +3102,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3263</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3092,7 +3154,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3144,7 +3206,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3278</t>
+          <t>3278</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3196,7 +3258,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3282</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3248,7 +3310,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3283</t>
+          <t>3283</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3300,7 +3362,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3352,7 +3414,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3404,7 +3466,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3456,7 +3518,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3508,7 +3570,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3560,7 +3622,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3612,7 +3674,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3664,7 +3726,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3716,7 +3778,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3768,7 +3830,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3820,7 +3882,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3872,7 +3934,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3924,7 +3986,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3976,7 +4038,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4028,7 +4090,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3346</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4080,7 +4142,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4132,7 +4194,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4184,7 +4246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4236,7 +4298,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4288,7 +4350,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4340,7 +4402,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4392,7 +4454,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4444,7 +4506,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4496,7 +4558,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4548,7 +4610,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4600,7 +4662,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4652,7 +4714,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4704,7 +4766,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4756,7 +4818,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4808,7 +4870,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4860,7 +4922,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4912,7 +4974,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4964,7 +5026,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5016,7 +5078,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5068,7 +5130,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5120,7 +5182,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5172,7 +5234,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5224,7 +5286,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5276,7 +5338,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5328,7 +5390,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5380,7 +5442,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5432,7 +5494,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5484,7 +5546,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5536,7 +5598,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5588,7 +5650,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5640,7 +5702,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5692,7 +5754,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5744,7 +5806,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5796,7 +5858,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5848,7 +5910,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5900,7 +5962,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5952,7 +6014,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6004,7 +6066,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6056,7 +6118,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6108,7 +6170,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6160,7 +6222,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6212,7 +6274,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6252,7 +6314,6 @@
           <t>112</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>01/08/2013</t>
@@ -6260,7 +6321,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3544</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6300,7 +6361,6 @@
           <t>113</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>03/08/2013</t>
@@ -6308,7 +6368,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6360,7 +6420,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6412,7 +6472,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6464,7 +6524,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6504,7 +6564,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>23/10/2013</t>
@@ -6512,7 +6571,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6564,7 +6623,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6616,7 +6675,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6668,7 +6727,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6720,7 +6779,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6772,7 +6831,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6824,7 +6883,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6876,7 +6935,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6916,7 +6975,6 @@
           <t>125</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -6924,7 +6982,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6976,7 +7034,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7028,7 +7086,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7080,7 +7138,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7132,7 +7190,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7184,7 +7242,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7236,7 +7294,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7288,7 +7346,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7340,7 +7398,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7380,7 +7438,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
           <t>05/03/2014</t>
@@ -7388,7 +7445,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7440,7 +7497,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7492,7 +7549,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7544,7 +7601,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7596,7 +7653,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7648,7 +7705,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7700,7 +7757,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7752,7 +7809,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7804,7 +7861,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7856,7 +7913,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7908,7 +7965,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7960,7 +8017,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8012,7 +8069,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8064,7 +8121,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8116,7 +8173,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8168,7 +8225,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8220,7 +8277,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8272,7 +8329,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8324,7 +8381,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8376,7 +8433,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8428,7 +8485,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8480,7 +8537,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8532,7 +8589,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8584,7 +8641,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8636,7 +8693,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8688,7 +8745,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8740,7 +8797,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8792,7 +8849,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8844,7 +8901,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8896,7 +8953,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8948,7 +9005,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9000,7 +9057,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9052,7 +9109,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9104,7 +9161,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9156,7 +9213,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9208,7 +9265,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9260,7 +9317,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9312,7 +9369,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9364,7 +9421,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9416,7 +9473,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9468,7 +9525,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9520,7 +9577,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9572,7 +9629,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9624,7 +9681,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9676,7 +9733,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9728,7 +9785,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9780,7 +9837,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9832,7 +9889,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9884,7 +9941,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9936,7 +9993,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9988,7 +10045,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10040,7 +10097,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10092,7 +10149,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10144,7 +10201,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10196,7 +10253,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10248,7 +10305,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10300,7 +10357,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10352,7 +10409,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10404,7 +10461,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10456,7 +10513,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10508,7 +10565,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10560,7 +10617,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10612,7 +10669,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10664,7 +10721,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10716,7 +10773,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10768,7 +10825,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10820,7 +10877,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10872,7 +10929,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10924,7 +10981,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10976,7 +11033,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11028,7 +11085,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11080,7 +11137,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11132,7 +11189,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11184,7 +11241,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11236,7 +11293,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11288,7 +11345,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11340,7 +11397,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11392,7 +11449,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11444,7 +11501,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11496,7 +11553,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11548,7 +11605,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11600,7 +11657,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11652,7 +11709,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11704,7 +11761,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11756,7 +11813,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11808,7 +11865,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11860,7 +11917,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11912,7 +11969,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11964,7 +12021,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -12016,7 +12073,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12068,7 +12125,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12120,7 +12177,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12172,7 +12229,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12224,7 +12281,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12276,7 +12333,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12328,7 +12385,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12380,7 +12437,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12432,7 +12489,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12484,7 +12541,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12536,7 +12593,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12588,7 +12645,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12640,7 +12697,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12692,7 +12749,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12732,7 +12789,6 @@
           <t>237</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -12740,7 +12796,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12792,7 +12848,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -12844,7 +12900,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -12896,7 +12952,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12948,7 +13004,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -13000,7 +13056,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -13052,7 +13108,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -13104,7 +13160,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -13156,7 +13212,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -13208,7 +13264,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -13260,7 +13316,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -13312,7 +13368,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -13364,7 +13420,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -13416,7 +13472,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -13468,7 +13524,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -13520,7 +13576,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -13572,7 +13628,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -13624,7 +13680,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -13676,7 +13732,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -13728,7 +13784,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -13780,7 +13836,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -13832,7 +13888,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -13884,7 +13940,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -13936,7 +13992,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -13988,7 +14044,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -14040,7 +14096,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -14092,7 +14148,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -14144,7 +14200,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -14196,7 +14252,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -14248,7 +14304,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -14300,7 +14356,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -14352,7 +14408,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -14404,7 +14460,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -14456,7 +14512,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -14508,7 +14564,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -14560,7 +14616,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -14612,7 +14668,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -14664,7 +14720,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -14703,7 +14759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14725,7 +14781,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -14762,7 +14818,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14799,7 +14855,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3073</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -14836,7 +14892,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -14873,7 +14929,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3130</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -14910,7 +14966,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3278</t>
+          <t>3278</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -14947,7 +15003,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3283</t>
+          <t>3283</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -14984,7 +15040,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -15021,7 +15077,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -15058,7 +15114,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -15095,7 +15151,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -15132,7 +15188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -15169,7 +15225,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -15206,7 +15262,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -15243,7 +15299,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -15280,7 +15336,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -15317,7 +15373,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -15354,7 +15410,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -15391,7 +15447,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -15428,7 +15484,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -15465,7 +15521,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -15502,7 +15558,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -15539,7 +15595,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -15576,7 +15632,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -15613,7 +15669,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -15650,7 +15706,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -15687,7 +15743,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -15724,7 +15780,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -15761,7 +15817,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -15798,7 +15854,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -15835,7 +15891,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -15872,7 +15928,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -15909,7 +15965,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -15946,7 +16002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -15983,7 +16039,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -16020,7 +16076,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -16057,7 +16113,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -16094,7 +16150,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -16131,7 +16187,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -16168,7 +16224,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -16205,7 +16261,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -16242,7 +16298,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -16279,7 +16335,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -16316,7 +16372,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -16353,7 +16409,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -16390,7 +16446,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -16427,7 +16483,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -16464,7 +16520,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -16501,7 +16557,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -16527,6 +16583,565 @@
       <c r="G49" t="inlineStr">
         <is>
           <t>0/12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.97%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10.96%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.88%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.50%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.77%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16643,10 +16644,6 @@
           <t>4524</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16672,7 +16669,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16715,10 +16711,6 @@
           <t>4533</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16774,7 +16766,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16907,10 +16898,6 @@
           <t>4685</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16923,10 +16910,6 @@
           <t>4687</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16969,10 +16952,6 @@
           <t>4691</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16985,10 +16964,6 @@
           <t>4692</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17144,6 +17119,282 @@
           <t>NO</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -934,7 +933,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1293,7 +1292,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -6988,7 +6987,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12802,7 +12801,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -16644,6 +16643,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16669,6 +16672,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16711,6 +16715,10 @@
           <t>4533</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16766,6 +16774,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16898,6 +16907,10 @@
           <t>4685</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16910,6 +16923,10 @@
           <t>4687</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16952,6 +16969,10 @@
           <t>4691</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16964,6 +16985,10 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17119,282 +17144,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3564</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3568</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3586</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3587</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3588</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3601</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3603</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3612</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3619</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3683</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3688</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3795</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3808</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3841</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3851</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3874</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3875</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4064</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3600.xlsx
@@ -16597,7 +16597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16640,13 +16640,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.22%</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16656,23 +16670,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.87%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16682,15 +16700,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -16700,7 +16718,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.97%</t>
+          <t>10.55%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -16712,13 +16730,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.93%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16728,11 +16760,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4535</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -16741,12 +16773,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>30.10%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -16758,11 +16790,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>3016</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -16774,7 +16806,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16784,15 +16820,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -16802,7 +16838,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>6.45%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -16814,27 +16850,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.51%</t>
-        </is>
-      </c>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16844,57 +16866,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>60.77%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.88%</t>
-        </is>
-      </c>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16904,13 +16912,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>3046</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.42%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16920,7 +16942,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>3062</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -16936,15 +16958,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -16954,7 +16976,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.83%</t>
+          <t>17.94%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -16966,13 +16988,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.75%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16982,7 +17018,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -16998,7 +17034,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -17006,7 +17042,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -17016,7 +17052,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.91%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -17028,27 +17064,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.35%</t>
-        </is>
-      </c>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17058,7 +17080,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -17066,7 +17088,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -17076,7 +17098,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>33.18%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -17088,27 +17110,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>26.50%</t>
-        </is>
-      </c>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17118,7 +17126,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -17126,20 +17134,6334 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.82%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3091</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10.40%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3092</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.73%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3111</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.74%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.28%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3118</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3123</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.64%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4.78%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10.45%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3170</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3193</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>40.41%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3204</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.04%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3206</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.51%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3212</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3214</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.06%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3215</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>11.58%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3219</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.27%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3245</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>16.19%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6.28%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3263</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3276</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.01%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>9.20%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>44.26%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3296</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.45%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.07%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3327</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3331</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>12.33%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3337</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>47.06%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3355</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>43.33%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3357</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>8.20%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5.50%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.96%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.53%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>6.36%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>6.74%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.73%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>12.73%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3387</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>35.53%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22.84%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3431</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>33.76%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>13.19%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3435</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>7.82%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3455</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4.19%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>12.98%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>49.04%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>10.08%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>9.37%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>9.32%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>4.80%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>32.80%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>26.05%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>3537</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3541</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>36.36%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>6</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>27.62%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>22.44%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>45.90%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>28.16%</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1.91%</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>37.96%</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>5.14%</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.57%</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>38.48%</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>3693</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>16.34%</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>3696</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2.61%</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>35.67%</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>31.73%</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>17.84%</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>16.92%</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>7.89%</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>3.69%</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>3844</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>30.56%</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>29.45%</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>39.66%</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>3.81%</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>53.29%</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>18.67%</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>24.16%</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>34.27%</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>25.39%</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>39.38%</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>36.23%</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>28.06%</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>53.88%</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>37.27%</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>34.93%</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>36.51%</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>16.05%</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>33.53%</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>38.66%</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>52.81%</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>25.95%</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>13.14%</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>62.62%</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>27.88%</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>19.07%</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>48.91%</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>44.58%</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>3</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>31.43%</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>3</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>19.66%</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>3</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>28.85%</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>24.49%</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>46.40%</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>3</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>43.77%</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>4</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>3</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>8.44%</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>3</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>23.30%</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>3</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>22.92%</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>26.87%</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>3</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>8.28%</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>3</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>12.83%</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>43.01%</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>3</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>26.90%</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>4</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>3</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>22.94%</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>3</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>30.80%</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>3</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>3.04%</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>3</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>20.86%</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>3</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>17.67%</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>3</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>3</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>3</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>22.97%</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>3</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>3</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>3</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>10.96%</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>3</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>3</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1.88%</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>3</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>3</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>3</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>3</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>3</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>26.50%</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>3</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
         <is>
           <t>21.77%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
